--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t>List of Banks/Lenders</t>
   </si>
@@ -276,132 +276,96 @@
     <t>As applicable</t>
   </si>
   <si>
-    <t>IndusInd Bank</t>
-  </si>
-  <si>
-    <t>11.00% Onwards</t>
-  </si>
-  <si>
-    <t>Upto INR 15 lakh</t>
+    <t>Karur Vysya Bank</t>
+  </si>
+  <si>
+    <t>11% - 19.00%</t>
+  </si>
+  <si>
+    <t>In-principle sanction - 15 minutes</t>
+  </si>
+  <si>
+    <t>1% of the loan amount</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra Bank</t>
+  </si>
+  <si>
+    <t>10.75% Onwards</t>
+  </si>
+  <si>
+    <t>Upto INR 20 lakh</t>
+  </si>
+  <si>
+    <t>Within 10 working days</t>
+  </si>
+  <si>
+    <t>0.99%-2.50% of the loan amount plus applicable GST</t>
+  </si>
+  <si>
+    <t>Nainital Bank</t>
+  </si>
+  <si>
+    <t>10.00% - 10.50%</t>
+  </si>
+  <si>
+    <t>15 times of net take home salary, subject to a maximum of INR 3-5 lakh</t>
+  </si>
+  <si>
+    <t>0.50%-1.00% of the loan amount plus applicable GST</t>
+  </si>
+  <si>
+    <t>2 times of average annual income of last 2 years, subject to a maximum of INR 2 lakh for self-employed</t>
+  </si>
+  <si>
+    <t>Oriental Bank of Commerce</t>
+  </si>
+  <si>
+    <t>8.95% - 14.00%</t>
+  </si>
+  <si>
+    <t>15 times of gross salary, subject to a maximum of INR 10 lakh</t>
+  </si>
+  <si>
+    <t>0.50% of the loan amount, subject to a minimum of INR 500, plus applicable GST</t>
+  </si>
+  <si>
+    <t>RBL Bank</t>
+  </si>
+  <si>
+    <t>17.50% - 26.00%</t>
+  </si>
+  <si>
+    <t>2%-2.50% of the loan amount</t>
+  </si>
+  <si>
+    <t>Punjab National Bank (PNB)</t>
+  </si>
+  <si>
+    <t>20 times of net monthly salary or INR 4 lakh, whichever is lower</t>
+  </si>
+  <si>
+    <t>1.80% of the loan amount plus applicable GST</t>
+  </si>
+  <si>
+    <t>State Bank of India (SBI)</t>
+  </si>
+  <si>
+    <t>9.60% - 13.60%</t>
+  </si>
+  <si>
+    <t>1% of the loan amount plus applicable GST</t>
+  </si>
+  <si>
+    <t>Standard Chartered Bank</t>
+  </si>
+  <si>
+    <t>14.00% - 21.00%</t>
   </si>
   <si>
     <t>Within 4-7 working days post receipt of the documents</t>
   </si>
   <si>
-    <t>1%-3% of the loan amount plus applicable GST</t>
-  </si>
-  <si>
-    <t>Jammu &amp; Kashmir Bank</t>
-  </si>
-  <si>
-    <t>Upto 36 months gross salary</t>
-  </si>
-  <si>
-    <t>NIL</t>
-  </si>
-  <si>
-    <t>Karnataka Bank</t>
-  </si>
-  <si>
-    <t>Karur Vysya Bank</t>
-  </si>
-  <si>
-    <t>11% - 19.00%</t>
-  </si>
-  <si>
-    <t>In-principle sanction - 15 minutes</t>
-  </si>
-  <si>
-    <t>1% of the loan amount</t>
-  </si>
-  <si>
-    <t>Kotak Mahindra Bank</t>
-  </si>
-  <si>
-    <t>10.75% Onwards</t>
-  </si>
-  <si>
-    <t>Upto INR 20 lakh</t>
-  </si>
-  <si>
-    <t>Within 10 working days</t>
-  </si>
-  <si>
-    <t>0.99%-2.50% of the loan amount plus applicable GST</t>
-  </si>
-  <si>
-    <t>Lakshmi Vilas Bank</t>
-  </si>
-  <si>
-    <t>0.25% of the loan amount, subject to a minimum of INR 2,500 plus applicable GST</t>
-  </si>
-  <si>
-    <t>Nainital Bank</t>
-  </si>
-  <si>
-    <t>10.00% - 10.50%</t>
-  </si>
-  <si>
-    <t>15 times of net take home salary, subject to a maximum of INR 3-5 lakh</t>
-  </si>
-  <si>
-    <t>0.50%-1.00% of the loan amount plus applicable GST</t>
-  </si>
-  <si>
-    <t>2 times of average annual income of last 2 years, subject to a maximum of INR 2 lakh for self-employed</t>
-  </si>
-  <si>
-    <t>Oriental Bank of Commerce</t>
-  </si>
-  <si>
-    <t>8.95% - 14.00%</t>
-  </si>
-  <si>
-    <t>15 times of gross salary, subject to a maximum of INR 10 lakh</t>
-  </si>
-  <si>
-    <t>0.50% of the loan amount, subject to a minimum of INR 500, plus applicable GST</t>
-  </si>
-  <si>
-    <t>Punjab &amp; Sind Bank</t>
-  </si>
-  <si>
-    <t>Upto 18 times of net monthly salary or INR 3 lakh, whichever is less</t>
-  </si>
-  <si>
-    <t>1% of the loan amount plus applicable GST</t>
-  </si>
-  <si>
-    <t>RBL Bank</t>
-  </si>
-  <si>
-    <t>17.50% - 26.00%</t>
-  </si>
-  <si>
-    <t>2%-2.50% of the loan amount</t>
-  </si>
-  <si>
-    <t>Punjab National Bank (PNB)</t>
-  </si>
-  <si>
-    <t>20 times of net monthly salary or INR 4 lakh, whichever is lower</t>
-  </si>
-  <si>
-    <t>1.80% of the loan amount plus applicable GST</t>
-  </si>
-  <si>
-    <t>State Bank of India (SBI)</t>
-  </si>
-  <si>
-    <t>9.60% - 13.60%</t>
-  </si>
-  <si>
-    <t>Standard Chartered Bank</t>
-  </si>
-  <si>
-    <t>14.00% - 21.00%</t>
-  </si>
-  <si>
     <t>Syndicate Bank</t>
   </si>
   <si>
@@ -442,6 +406,9 @@
   </si>
   <si>
     <t>10.50% Onwards</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>Within 5 days from the receipt of the application</t>
@@ -485,7 +452,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,8 +473,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,22 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,28 +574,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +590,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,13 +644,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,169 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,16 +857,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,11 +919,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,169 +945,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,18 +1170,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1546,10 +1494,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2190,7 +2138,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" ht="15.75" spans="1:9">
+    <row r="33" spans="1:9">
       <c r="A33" s="13" t="s">
         <v>83</v>
       </c>
@@ -2215,557 +2163,437 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" ht="29.25" spans="1:9">
+    <row r="34" ht="15.75" spans="1:9">
       <c r="A34" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="15">
         <v>11</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="15">
+        <v>19</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" ht="15.75" spans="1:9">
       <c r="A35" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="26">
-        <v>0.103</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="14" t="s">
+      <c r="C35" s="6">
+        <v>10.75</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="14" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" spans="1:9">
+      <c r="I35" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="1:9">
       <c r="A36" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="28">
-        <v>0.1235</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="29"/>
+        <v>95</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="6">
+        <v>10</v>
+      </c>
+      <c r="D36" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" spans="1:9">
-      <c r="A37" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="15">
-        <v>11</v>
-      </c>
-      <c r="D37" s="15">
-        <v>19</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I37" s="14" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="37" ht="28.5" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
     <row r="38" ht="15.75" spans="1:9">
-      <c r="A38" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="6">
-        <v>10.75</v>
-      </c>
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="5"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" ht="29.25" spans="1:9">
       <c r="A39" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="26">
-        <v>0.1155</v>
-      </c>
-      <c r="C39" s="27">
-        <v>0.1155</v>
-      </c>
-      <c r="D39" s="27"/>
+        <v>100</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="15">
+        <v>8.95</v>
+      </c>
+      <c r="D39" s="15">
+        <v>14</v>
+      </c>
       <c r="E39" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F39" s="14"/>
-      <c r="G39" s="27"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" ht="28.5" spans="1:9">
-      <c r="A40" s="13" t="s">
+      <c r="C40" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="D40" s="15">
+        <v>26</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="5" t="s">
+    </row>
+    <row r="41" ht="29.25" spans="1:9">
+      <c r="A41" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="6">
-        <v>10</v>
-      </c>
-      <c r="D40" s="6">
-        <v>10.5</v>
-      </c>
-      <c r="E40" s="21" t="s">
+      <c r="B41" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="6">
+        <v>8.95</v>
+      </c>
+      <c r="D41" s="6">
+        <v>14</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="21"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" ht="28.5" spans="1:9">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="22" t="s">
+    <row r="42" ht="15.75" spans="1:9">
+      <c r="A42" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" ht="15.75" spans="1:9">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="B42" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="15">
+        <v>9.6</v>
+      </c>
+      <c r="D42" s="15">
+        <v>13.6</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="43" ht="29.25" spans="1:9">
       <c r="A43" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="6">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6">
+        <v>21</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="15">
+    </row>
+    <row r="44" ht="28.5" spans="1:9">
+      <c r="A44" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="15">
+        <v>11.25</v>
+      </c>
+      <c r="D44" s="15">
+        <v>13.3</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="13"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" ht="15.75" spans="1:9">
+      <c r="A46" s="13"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" ht="29.25" spans="1:9">
+      <c r="A47" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="6">
+        <v>8.45</v>
+      </c>
+      <c r="D47" s="6">
+        <v>10.45</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" spans="1:9">
+      <c r="A48" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="15">
         <v>8.95</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D48" s="15">
         <v>14</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="14" t="s">
+      <c r="E48" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" ht="29.25" spans="1:9">
-      <c r="A44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="28">
-        <v>0.111</v>
-      </c>
-      <c r="C44" s="29">
-        <v>0.111</v>
-      </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" spans="1:9">
-      <c r="A45" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="15">
-        <v>17.5</v>
-      </c>
-      <c r="D45" s="15">
-        <v>26</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" ht="29.25" spans="1:9">
-      <c r="A46" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" s="5" t="s">
+      <c r="I48" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" s="6">
-        <v>8.95</v>
-      </c>
-      <c r="D46" s="6">
-        <v>14</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" spans="1:9">
-      <c r="A47" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="15">
-        <v>9.6</v>
-      </c>
-      <c r="D47" s="15">
-        <v>13.6</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" ht="29.25" spans="1:9">
-      <c r="A48" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="6">
-        <v>14</v>
-      </c>
-      <c r="D48" s="6">
-        <v>21</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" ht="28.5" spans="1:9">
       <c r="A49" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="6">
+        <v>10</v>
+      </c>
+      <c r="D49" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" s="21"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" ht="29.25" spans="1:9">
+      <c r="A50" s="13"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" ht="29.25" spans="1:9">
+      <c r="A51" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="15">
-        <v>11.25</v>
-      </c>
-      <c r="D49" s="15">
-        <v>13.3</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="14" t="s">
+      <c r="C51" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="13"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="18" t="s">
+      <c r="E51" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="18"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" ht="15.75" spans="1:9">
-      <c r="A51" s="13"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
+      <c r="I51" s="14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="52" ht="29.25" spans="1:9">
       <c r="A52" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C52" s="6">
-        <v>8.45</v>
+        <v>10.99</v>
       </c>
       <c r="D52" s="6">
-        <v>10.45</v>
+        <v>19.75</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="15">
         <v>12</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="D53" s="15">
+        <v>25</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" spans="1:9">
-      <c r="A53" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="15">
-        <v>8.95</v>
-      </c>
-      <c r="D53" s="15">
-        <v>14</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="14" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" ht="28.5" spans="1:9">
-      <c r="A54" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="6">
-        <v>10</v>
-      </c>
-      <c r="D54" s="6">
-        <v>15.6</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" ht="28.5" spans="1:9">
-      <c r="A55" s="13"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-    </row>
-    <row r="56" ht="15.75" spans="1:9">
-      <c r="A56" s="13"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-    </row>
-    <row r="57" ht="29.25" spans="1:9">
-      <c r="A57" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C57" s="15">
-        <v>10.5</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" ht="29.25" spans="1:9">
-      <c r="A58" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="6">
-        <v>10.99</v>
-      </c>
-      <c r="D58" s="6">
-        <v>19.75</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="15">
-        <v>12</v>
-      </c>
-      <c r="D59" s="15">
-        <v>25</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I59" s="14" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2776,25 +2604,25 @@
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A49:A50"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="D2:D5"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D11:D15"/>
@@ -2811,17 +2639,17 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="H49:H50"/>
     <mergeCell ref="I2:I5"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="I11:I15"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I49:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
